--- a/Excel-XLSX/UN-FIJ.xlsx
+++ b/Excel-XLSX/UN-FIJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,154 @@
     <t>1</t>
   </si>
   <si>
-    <t>r1lQT3</t>
+    <t>B0kggX</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>FIJ</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>1995</t>
@@ -102,37 +249,37 @@
     <t>LKA</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>FIJ</t>
-  </si>
-  <si>
-    <t>FJI</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>22</t>
   </si>
   <si>
     <t>1996</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>2008</t>
@@ -147,58 +294,34 @@
     <t>RUS</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>LEB</t>
-  </si>
-  <si>
-    <t>LBN</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>200</t>
@@ -210,100 +333,7 @@
     <t>UKR</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BGD</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -688,7 +718,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -811,25 +841,25 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -843,10 +873,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -873,31 +903,31 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -911,22 +941,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -944,28 +974,28 @@
         <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -979,22 +1009,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1009,31 +1039,31 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1047,22 +1077,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1077,31 +1107,31 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1115,22 +1145,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1145,31 +1175,31 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1183,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1213,31 +1243,31 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>33</v>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1251,22 +1281,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1281,31 +1311,31 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>33</v>
+      <c r="V9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1319,22 +1349,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1349,31 +1379,31 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1387,22 +1417,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1417,31 +1447,31 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>33</v>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1455,22 +1485,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1488,28 +1518,28 @@
         <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>33</v>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1523,22 +1553,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1553,31 +1583,31 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>33</v>
+      <c r="V13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1591,22 +1621,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1621,31 +1651,31 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>33</v>
+      <c r="V14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1659,22 +1689,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1689,31 +1719,31 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1727,22 +1757,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1757,31 +1787,31 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1795,22 +1825,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1825,31 +1855,31 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>33</v>
+      <c r="V17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -1863,22 +1893,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -1893,31 +1923,31 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>33</v>
+      <c r="V18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -1931,22 +1961,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -1961,31 +1991,31 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>33</v>
+      <c r="V19" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -1999,22 +2029,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2032,28 +2062,28 @@
         <v>33</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>33</v>
+      <c r="V20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2067,22 +2097,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2097,31 +2127,31 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>33</v>
+      <c r="V21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2135,22 +2165,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2165,31 +2195,31 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>33</v>
+      <c r="V22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2203,22 +2233,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2233,31 +2263,31 @@
         <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>33</v>
+      <c r="V23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -2271,22 +2301,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2301,31 +2331,31 @@
         <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>33</v>
+      <c r="V24" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2339,22 +2369,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2369,31 +2399,31 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="P25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>33</v>
+      <c r="V25" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -2407,22 +2437,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2437,31 +2467,31 @@
         <v>31</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>33</v>
+      <c r="V26" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -2475,22 +2505,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2505,31 +2535,31 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>33</v>
+      <c r="V27" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2543,22 +2573,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2573,31 +2603,31 @@
         <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>33</v>
+      <c r="V28" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -2611,22 +2641,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2641,31 +2671,31 @@
         <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>33</v>
+      <c r="V29" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -2679,22 +2709,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2709,31 +2739,31 @@
         <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -2747,22 +2777,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2777,31 +2807,235 @@
         <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>33</v>
+      <c r="O32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-FIJ.xlsx
+++ b/Excel-XLSX/UN-FIJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>B0kggX</t>
+    <t>o4bTH4</t>
   </si>
   <si>
     <t>2009</t>
@@ -258,6 +258,9 @@
     <t>23</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>147</t>
   </si>
   <si>
@@ -267,9 +270,6 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -282,6 +282,9 @@
     <t>28</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>2008</t>
   </si>
   <si>
@@ -292,18 +295,6 @@
   </si>
   <si>
     <t>RUS</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
   </si>
   <si>
     <t>30</t>
@@ -858,8 +849,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -926,8 +917,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -994,8 +985,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1062,8 +1053,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1130,8 +1121,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1198,8 +1189,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1266,8 +1257,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1334,8 +1325,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1402,8 +1393,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1470,8 +1461,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1538,8 +1529,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1606,8 +1597,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1674,8 +1665,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1787,7 +1778,7 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>32</v>
@@ -1878,8 +1869,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1946,8 +1937,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2014,8 +2005,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2082,8 +2073,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2150,8 +2141,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2218,8 +2209,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2286,8 +2277,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2304,19 +2295,19 @@
         <v>79</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2331,10 +2322,10 @@
         <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>32</v>
@@ -2354,8 +2345,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2369,22 +2360,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2422,8 +2413,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2440,19 +2431,19 @@
         <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2467,10 +2458,10 @@
         <v>31</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>32</v>
@@ -2490,8 +2481,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>34</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -2508,19 +2499,19 @@
         <v>85</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2535,7 +2526,7 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>32</v>
@@ -2558,8 +2549,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -2576,19 +2567,19 @@
         <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2603,7 +2594,7 @@
         <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>32</v>
@@ -2626,8 +2617,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -2644,19 +2635,19 @@
         <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2671,10 +2662,10 @@
         <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>32</v>
@@ -2694,8 +2685,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -2709,22 +2700,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2777,22 +2768,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2845,22 +2836,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -2913,22 +2904,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -2966,8 +2957,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -2981,22 +2972,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3034,8 +3025,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-FIJ.xlsx
+++ b/Excel-XLSX/UN-FIJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,241 +90,277 @@
     <t>o4bTH4</t>
   </si>
   <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>FIJ</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2009</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>AFG</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>FIJ</t>
-  </si>
-  <si>
-    <t>FJI</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>2010</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
   <si>
     <t>2011</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2012</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>2013</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>2014</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>2015</t>
   </si>
   <si>
-    <t>8</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>9</t>
+    <t>15</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>10</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
-    <t>11</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>12</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>13</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>14</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>15</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BGD</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>LEB</t>
-  </si>
-  <si>
-    <t>LBN</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>TON</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
     <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
 </sst>
 </file>
@@ -709,7 +745,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -832,25 +868,25 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -864,10 +900,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -894,31 +930,31 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -932,22 +968,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -965,28 +1001,28 @@
         <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1000,22 +1036,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1030,31 +1066,31 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1068,22 +1104,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1098,31 +1134,31 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1136,61 +1172,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1204,22 +1240,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1234,31 +1270,31 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1272,22 +1308,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1302,31 +1338,31 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1340,22 +1376,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1370,31 +1406,31 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1408,22 +1444,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1438,31 +1474,31 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1476,22 +1512,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1509,28 +1545,28 @@
         <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1544,22 +1580,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1574,31 +1610,31 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1648,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1642,31 +1678,31 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1680,22 +1716,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1710,31 +1746,31 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1748,22 +1784,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1778,31 +1814,31 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1816,22 +1852,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1846,31 +1882,31 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -1884,22 +1920,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -1914,31 +1950,31 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -1952,22 +1988,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -1982,31 +2018,31 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2020,22 +2056,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2053,28 +2089,28 @@
         <v>33</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2088,61 +2124,61 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O21" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2156,22 +2192,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2186,31 +2222,31 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2224,22 +2260,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2254,31 +2290,31 @@
         <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2292,22 +2328,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2322,31 +2358,31 @@
         <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2360,22 +2396,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2390,31 +2426,31 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2428,22 +2464,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2458,31 +2494,31 @@
         <v>31</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2496,61 +2532,61 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="O27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2564,22 +2600,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2594,31 +2630,31 @@
         <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2632,22 +2668,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2662,31 +2698,31 @@
         <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2700,22 +2736,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2730,31 +2766,31 @@
         <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -2768,22 +2804,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2798,31 +2834,31 @@
         <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -2836,22 +2872,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -2866,31 +2902,31 @@
         <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -2904,61 +2940,61 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O33" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -2975,19 +3011,19 @@
         <v>102</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3002,31 +3038,371 @@
         <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-FIJ.xlsx
+++ b/Excel-XLSX/UN-FIJ.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>o4bTH4</t>
+    <t>M3tPQd</t>
   </si>
   <si>
     <t>1995</t>
@@ -333,34 +333,34 @@
     <t>2024</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>LVA</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZIM</t>
+  </si>
+  <si>
+    <t>ZWE</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3082,16 +3082,16 @@
         <v>104</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3106,10 +3106,10 @@
         <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>33</v>
@@ -3144,7 +3144,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>104</v>
@@ -3212,22 +3212,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3242,10 +3242,10 @@
         <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>33</v>
@@ -3295,7 +3295,7 @@
         <v>113</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3310,10 +3310,10 @@
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>33</v>
@@ -3334,74 +3334,6 @@
         <v>34</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V39" s="2" t="s">
         <v>33</v>
       </c>
     </row>
